--- a/DB tables.xlsx
+++ b/DB tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vnarsinghani\Desktop\Grapht\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vnarsinghani\Documents\Grapht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8012CF42-DD34-4A04-9BF4-84A28B770E84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86185E0-4D78-4103-853A-C886889448FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D32F7A7B-8855-4EDD-B171-E9F88C6CE6FE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{D32F7A7B-8855-4EDD-B171-E9F88C6CE6FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Subject" sheetId="5" r:id="rId1"/>
@@ -729,7 +729,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I12" sqref="I11:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
